--- a/data/dem/participants_master.xlsx
+++ b/data/dem/participants_master.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisztinasara\github\developmental_disorders_SL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisztinasara\github\developmental_disorders_SL\data\dem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3087B8A6-04B1-40CB-BB82-6B8C913D8EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4369C73-8EDF-472A-90B6-D404B81FDC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" activeTab="6" xr2:uid="{47D0E5E9-B13E-4FFF-808F-B50144EA6C02}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{47D0E5E9-B13E-4FFF-808F-B50144EA6C02}"/>
   </bookViews>
   <sheets>
-    <sheet name="TD" sheetId="1" r:id="rId1"/>
-    <sheet name="DLD" sheetId="2" r:id="rId2"/>
-    <sheet name="ADHD" sheetId="3" r:id="rId3"/>
-    <sheet name="ASD" sheetId="4" r:id="rId4"/>
-    <sheet name="TD_selected_controls" sheetId="10" r:id="rId5"/>
-    <sheet name="dropped_participants" sheetId="9" r:id="rId6"/>
-    <sheet name="ID_codes" sheetId="6" r:id="rId7"/>
+    <sheet name="matched_sample" sheetId="11" r:id="rId1"/>
+    <sheet name="TD" sheetId="1" r:id="rId2"/>
+    <sheet name="DLD" sheetId="2" r:id="rId3"/>
+    <sheet name="ADHD" sheetId="3" r:id="rId4"/>
+    <sheet name="ASD" sheetId="4" r:id="rId5"/>
+    <sheet name="TD_selected_controls" sheetId="10" r:id="rId6"/>
+    <sheet name="dropped_participants" sheetId="9" r:id="rId7"/>
+    <sheet name="ID_codes" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="753">
   <si>
     <t>ID</t>
   </si>
@@ -2256,6 +2257,51 @@
   </si>
   <si>
     <t>Meixner tesztelés, TD és DLD, tesztelési dátun vége kérdéses</t>
+  </si>
+  <si>
+    <t>6104</t>
+  </si>
+  <si>
+    <t>6107</t>
+  </si>
+  <si>
+    <t>6111</t>
+  </si>
+  <si>
+    <t>6113</t>
+  </si>
+  <si>
+    <t>6115</t>
+  </si>
+  <si>
+    <t>6126</t>
+  </si>
+  <si>
+    <t>6127</t>
+  </si>
+  <si>
+    <t>6128</t>
+  </si>
+  <si>
+    <t>6129</t>
+  </si>
+  <si>
+    <t>6133</t>
+  </si>
+  <si>
+    <t>6138</t>
+  </si>
+  <si>
+    <t>6140</t>
+  </si>
+  <si>
+    <t>age_years</t>
+  </si>
+  <si>
+    <t>expr_vocab</t>
+  </si>
+  <si>
+    <t>sent_rep</t>
   </si>
 </sst>
 </file>
@@ -2653,6 +2699,2024 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05EED49D-FEF5-43E4-9FC0-26BD7EF356DF}">
+  <dimension ref="A1:F103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" t="s">
+        <v>751</v>
+      </c>
+      <c r="F1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5501</v>
+      </c>
+      <c r="B2">
+        <v>12.69</v>
+      </c>
+      <c r="C2">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>722</v>
+      </c>
+      <c r="E2">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="F2">
+        <v>0.49333333333333329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5510</v>
+      </c>
+      <c r="B3">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="C3">
+        <v>135</v>
+      </c>
+      <c r="D3" t="s">
+        <v>722</v>
+      </c>
+      <c r="E3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F3">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5511</v>
+      </c>
+      <c r="B4">
+        <v>10.9</v>
+      </c>
+      <c r="C4">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>722</v>
+      </c>
+      <c r="E4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F4">
+        <v>0.43333333333333329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5513</v>
+      </c>
+      <c r="B5">
+        <v>11.57</v>
+      </c>
+      <c r="C5">
+        <v>114</v>
+      </c>
+      <c r="D5" t="s">
+        <v>722</v>
+      </c>
+      <c r="E5">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5514</v>
+      </c>
+      <c r="B6">
+        <v>14.61</v>
+      </c>
+      <c r="C6">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>722</v>
+      </c>
+      <c r="E6">
+        <v>0.89166666666666672</v>
+      </c>
+      <c r="F6">
+        <v>0.50666666666666671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5516</v>
+      </c>
+      <c r="B7">
+        <v>11.41</v>
+      </c>
+      <c r="C7">
+        <v>106</v>
+      </c>
+      <c r="D7" t="s">
+        <v>722</v>
+      </c>
+      <c r="E7">
+        <v>0.90416666666666667</v>
+      </c>
+      <c r="F7">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5517</v>
+      </c>
+      <c r="B8">
+        <v>10.43</v>
+      </c>
+      <c r="C8">
+        <v>106</v>
+      </c>
+      <c r="D8" t="s">
+        <v>722</v>
+      </c>
+      <c r="E8">
+        <v>0.9</v>
+      </c>
+      <c r="F8">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5518</v>
+      </c>
+      <c r="B9">
+        <v>13.26</v>
+      </c>
+      <c r="C9">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>722</v>
+      </c>
+      <c r="E9">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.47333333333333327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5519</v>
+      </c>
+      <c r="B10">
+        <v>12.38</v>
+      </c>
+      <c r="C10">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s">
+        <v>722</v>
+      </c>
+      <c r="E10">
+        <v>0.90833333333333333</v>
+      </c>
+      <c r="F10">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5502</v>
+      </c>
+      <c r="B11">
+        <v>8.86</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>722</v>
+      </c>
+      <c r="E11">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F11">
+        <v>0.44666666666666671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5520</v>
+      </c>
+      <c r="B12">
+        <v>13.86</v>
+      </c>
+      <c r="C12">
+        <v>96</v>
+      </c>
+      <c r="D12" t="s">
+        <v>722</v>
+      </c>
+      <c r="E12">
+        <v>0.9916666666666667</v>
+      </c>
+      <c r="F12">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5504</v>
+      </c>
+      <c r="B13">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C13">
+        <v>130</v>
+      </c>
+      <c r="D13" t="s">
+        <v>722</v>
+      </c>
+      <c r="E13">
+        <v>0.74583333333333335</v>
+      </c>
+      <c r="F13">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>5505</v>
+      </c>
+      <c r="B14">
+        <v>12.43</v>
+      </c>
+      <c r="C14">
+        <v>107</v>
+      </c>
+      <c r="D14" t="s">
+        <v>722</v>
+      </c>
+      <c r="E14">
+        <v>0.85</v>
+      </c>
+      <c r="F14">
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5506</v>
+      </c>
+      <c r="B15">
+        <v>14.1</v>
+      </c>
+      <c r="C15">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
+        <v>722</v>
+      </c>
+      <c r="E15">
+        <v>0.9</v>
+      </c>
+      <c r="F15">
+        <v>0.1933333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>738</v>
+      </c>
+      <c r="B16">
+        <v>10.52</v>
+      </c>
+      <c r="C16">
+        <v>89</v>
+      </c>
+      <c r="D16" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>739</v>
+      </c>
+      <c r="B17">
+        <v>9.31</v>
+      </c>
+      <c r="C17">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>724</v>
+      </c>
+      <c r="E17">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="F17">
+        <v>0.76666666666666672</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>740</v>
+      </c>
+      <c r="B18">
+        <v>12.41</v>
+      </c>
+      <c r="C18">
+        <v>107</v>
+      </c>
+      <c r="D18" t="s">
+        <v>724</v>
+      </c>
+      <c r="E18">
+        <v>0.9</v>
+      </c>
+      <c r="F18">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>741</v>
+      </c>
+      <c r="B19">
+        <v>12.8</v>
+      </c>
+      <c r="C19">
+        <v>119</v>
+      </c>
+      <c r="D19" t="s">
+        <v>724</v>
+      </c>
+      <c r="E19">
+        <v>0.94166666666666665</v>
+      </c>
+      <c r="F19">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>742</v>
+      </c>
+      <c r="B20">
+        <v>11.35</v>
+      </c>
+      <c r="C20">
+        <v>92</v>
+      </c>
+      <c r="D20" t="s">
+        <v>724</v>
+      </c>
+      <c r="E20">
+        <v>0.95</v>
+      </c>
+      <c r="F20">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>743</v>
+      </c>
+      <c r="B21">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="C21">
+        <v>87</v>
+      </c>
+      <c r="D21" t="s">
+        <v>724</v>
+      </c>
+      <c r="E21">
+        <v>0.9</v>
+      </c>
+      <c r="F21">
+        <v>0.58666666666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>744</v>
+      </c>
+      <c r="B22">
+        <v>10.37</v>
+      </c>
+      <c r="C22">
+        <v>109</v>
+      </c>
+      <c r="D22" t="s">
+        <v>724</v>
+      </c>
+      <c r="E22">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="F22">
+        <v>0.54666666666666663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>745</v>
+      </c>
+      <c r="B23">
+        <v>11.5</v>
+      </c>
+      <c r="C23">
+        <v>109</v>
+      </c>
+      <c r="D23" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>746</v>
+      </c>
+      <c r="B24">
+        <v>11.32</v>
+      </c>
+      <c r="C24">
+        <v>123</v>
+      </c>
+      <c r="D24" t="s">
+        <v>724</v>
+      </c>
+      <c r="E24">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="F24">
+        <v>0.61333333333333329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>747</v>
+      </c>
+      <c r="B25">
+        <v>12.59</v>
+      </c>
+      <c r="C25">
+        <v>119</v>
+      </c>
+      <c r="D25" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>748</v>
+      </c>
+      <c r="B26">
+        <v>15.2</v>
+      </c>
+      <c r="C26">
+        <v>110</v>
+      </c>
+      <c r="D26" t="s">
+        <v>724</v>
+      </c>
+      <c r="E26">
+        <v>0.95</v>
+      </c>
+      <c r="F26">
+        <v>0.7533333333333333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>749</v>
+      </c>
+      <c r="B27">
+        <v>15.26</v>
+      </c>
+      <c r="C27">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>724</v>
+      </c>
+      <c r="E27">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="F27">
+        <v>0.80666666666666664</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>5507</v>
+      </c>
+      <c r="B28">
+        <v>12.37</v>
+      </c>
+      <c r="C28">
+        <v>135</v>
+      </c>
+      <c r="D28" t="s">
+        <v>722</v>
+      </c>
+      <c r="E28">
+        <v>0.87083333333333335</v>
+      </c>
+      <c r="F28">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>5508</v>
+      </c>
+      <c r="B29">
+        <v>11.2</v>
+      </c>
+      <c r="C29">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>722</v>
+      </c>
+      <c r="E29">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F29">
+        <v>0.60666666666666669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>5509</v>
+      </c>
+      <c r="B30">
+        <v>10.52</v>
+      </c>
+      <c r="C30">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
+        <v>722</v>
+      </c>
+      <c r="E30">
+        <v>0.79583333333333328</v>
+      </c>
+      <c r="F30">
+        <v>0.48666666666666669</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>431</v>
+      </c>
+      <c r="B31">
+        <v>12.5065024</v>
+      </c>
+      <c r="C31">
+        <v>89</v>
+      </c>
+      <c r="D31" t="s">
+        <v>732</v>
+      </c>
+      <c r="E31">
+        <v>0.84166666666666667</v>
+      </c>
+      <c r="F31">
+        <v>0.37333333333333341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>433</v>
+      </c>
+      <c r="B32">
+        <v>11.02532512</v>
+      </c>
+      <c r="C32">
+        <v>137</v>
+      </c>
+      <c r="D32" t="s">
+        <v>732</v>
+      </c>
+      <c r="E32">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="F32">
+        <v>0.69333333333333336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>435</v>
+      </c>
+      <c r="B33">
+        <v>9.100616016</v>
+      </c>
+      <c r="C33">
+        <v>88</v>
+      </c>
+      <c r="D33" t="s">
+        <v>732</v>
+      </c>
+      <c r="E33">
+        <v>0.6958333333333333</v>
+      </c>
+      <c r="F33">
+        <v>0.41333333333333327</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>437</v>
+      </c>
+      <c r="B34">
+        <v>13.289527720000001</v>
+      </c>
+      <c r="C34">
+        <v>130</v>
+      </c>
+      <c r="D34" t="s">
+        <v>732</v>
+      </c>
+      <c r="E34">
+        <v>0.75416666666666665</v>
+      </c>
+      <c r="F34">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>439</v>
+      </c>
+      <c r="B35">
+        <v>11.69062286</v>
+      </c>
+      <c r="C35">
+        <v>95</v>
+      </c>
+      <c r="D35" t="s">
+        <v>732</v>
+      </c>
+      <c r="E35">
+        <v>0.84583333333333333</v>
+      </c>
+      <c r="F35">
+        <v>0.70666666666666667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>441</v>
+      </c>
+      <c r="B36">
+        <v>12.355920599999999</v>
+      </c>
+      <c r="C36">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s">
+        <v>732</v>
+      </c>
+      <c r="E36">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F36">
+        <v>0.69333333333333336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>443</v>
+      </c>
+      <c r="B37">
+        <v>10.23408624</v>
+      </c>
+      <c r="C37">
+        <v>89</v>
+      </c>
+      <c r="D37" t="s">
+        <v>732</v>
+      </c>
+      <c r="E37">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="F37">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>445</v>
+      </c>
+      <c r="B38">
+        <v>13.19644079</v>
+      </c>
+      <c r="C38">
+        <v>101</v>
+      </c>
+      <c r="D38" t="s">
+        <v>732</v>
+      </c>
+      <c r="F38">
+        <v>0.52666666666666662</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>447</v>
+      </c>
+      <c r="B39">
+        <v>12.29295003</v>
+      </c>
+      <c r="C39">
+        <v>112</v>
+      </c>
+      <c r="D39" t="s">
+        <v>732</v>
+      </c>
+      <c r="E39">
+        <v>0.8</v>
+      </c>
+      <c r="F39">
+        <v>0.40666666666666668</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>449</v>
+      </c>
+      <c r="B40">
+        <v>11.52361396</v>
+      </c>
+      <c r="C40">
+        <v>113</v>
+      </c>
+      <c r="D40" t="s">
+        <v>732</v>
+      </c>
+      <c r="E40">
+        <v>0.90416666666666667</v>
+      </c>
+      <c r="F40">
+        <v>0.69333333333333336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>451</v>
+      </c>
+      <c r="B41">
+        <v>13.19370294</v>
+      </c>
+      <c r="C41">
+        <v>130</v>
+      </c>
+      <c r="D41" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>453</v>
+      </c>
+      <c r="B42">
+        <v>11.55373032</v>
+      </c>
+      <c r="C42">
+        <v>109</v>
+      </c>
+      <c r="D42" t="s">
+        <v>732</v>
+      </c>
+      <c r="E42">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F42">
+        <v>0.58666666666666667</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>457</v>
+      </c>
+      <c r="B43">
+        <v>11.069130729999999</v>
+      </c>
+      <c r="C43">
+        <v>112</v>
+      </c>
+      <c r="D43" t="s">
+        <v>732</v>
+      </c>
+      <c r="E43">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F43">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>461</v>
+      </c>
+      <c r="B44">
+        <v>14.88295688</v>
+      </c>
+      <c r="C44">
+        <v>116</v>
+      </c>
+      <c r="D44" t="s">
+        <v>732</v>
+      </c>
+      <c r="E44">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="F44">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>463</v>
+      </c>
+      <c r="B45">
+        <v>11.32922656</v>
+      </c>
+      <c r="C45">
+        <v>123</v>
+      </c>
+      <c r="D45" t="s">
+        <v>732</v>
+      </c>
+      <c r="E45">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="F45">
+        <v>0.69333333333333336</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>465</v>
+      </c>
+      <c r="B46">
+        <v>11.09924709</v>
+      </c>
+      <c r="C46">
+        <v>103</v>
+      </c>
+      <c r="D46" t="s">
+        <v>732</v>
+      </c>
+      <c r="E46">
+        <v>0.85</v>
+      </c>
+      <c r="F46">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>467</v>
+      </c>
+      <c r="B47">
+        <v>13.273100619999999</v>
+      </c>
+      <c r="C47">
+        <v>110</v>
+      </c>
+      <c r="D47" t="s">
+        <v>732</v>
+      </c>
+      <c r="E47">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="F47">
+        <v>0.84666666666666668</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>469</v>
+      </c>
+      <c r="B48">
+        <v>12.44626968</v>
+      </c>
+      <c r="C48">
+        <v>89</v>
+      </c>
+      <c r="D48" t="s">
+        <v>732</v>
+      </c>
+      <c r="E48">
+        <v>0.85833333333333328</v>
+      </c>
+      <c r="F48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>473</v>
+      </c>
+      <c r="B49">
+        <v>12.793976730000001</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+      <c r="D49" t="s">
+        <v>732</v>
+      </c>
+      <c r="E49">
+        <v>0.90833333333333333</v>
+      </c>
+      <c r="F49">
+        <v>0.67333333333333334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>475</v>
+      </c>
+      <c r="B50">
+        <v>12.019164959999999</v>
+      </c>
+      <c r="C50">
+        <v>112</v>
+      </c>
+      <c r="D50" t="s">
+        <v>732</v>
+      </c>
+      <c r="E50">
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="F50">
+        <v>0.85333333333333339</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>477</v>
+      </c>
+      <c r="B51">
+        <v>12.40793977</v>
+      </c>
+      <c r="C51">
+        <v>88</v>
+      </c>
+      <c r="D51" t="s">
+        <v>732</v>
+      </c>
+      <c r="E51">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="F51">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>479</v>
+      </c>
+      <c r="B52">
+        <v>11.734428469999999</v>
+      </c>
+      <c r="C52">
+        <v>106</v>
+      </c>
+      <c r="D52" t="s">
+        <v>732</v>
+      </c>
+      <c r="E52">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="F52">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>481</v>
+      </c>
+      <c r="B53">
+        <v>10.36550308</v>
+      </c>
+      <c r="C53">
+        <v>113</v>
+      </c>
+      <c r="D53" t="s">
+        <v>732</v>
+      </c>
+      <c r="E53">
+        <v>0.94166666666666665</v>
+      </c>
+      <c r="F53">
+        <v>0.59333333333333338</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>483</v>
+      </c>
+      <c r="B54">
+        <v>13.07323751</v>
+      </c>
+      <c r="C54">
+        <v>130</v>
+      </c>
+      <c r="D54" t="s">
+        <v>732</v>
+      </c>
+      <c r="E54">
+        <v>0.9291666666666667</v>
+      </c>
+      <c r="F54">
+        <v>0.61333333333333329</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>534</v>
+      </c>
+      <c r="B55">
+        <v>13.382614650000001</v>
+      </c>
+      <c r="C55">
+        <v>120</v>
+      </c>
+      <c r="D55" t="s">
+        <v>736</v>
+      </c>
+      <c r="E55">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="F55">
+        <v>0.89333333333333331</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>536</v>
+      </c>
+      <c r="B56">
+        <v>9.5496235459999994</v>
+      </c>
+      <c r="C56">
+        <v>112</v>
+      </c>
+      <c r="D56" t="s">
+        <v>736</v>
+      </c>
+      <c r="E56">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F56">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>538</v>
+      </c>
+      <c r="B57">
+        <v>11.011635869999999</v>
+      </c>
+      <c r="C57">
+        <v>100</v>
+      </c>
+      <c r="D57" t="s">
+        <v>736</v>
+      </c>
+      <c r="E57">
+        <v>0.70416666666666672</v>
+      </c>
+      <c r="F57">
+        <v>0.51333333333333331</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>540</v>
+      </c>
+      <c r="B58">
+        <v>10.01779603</v>
+      </c>
+      <c r="C58">
+        <v>119</v>
+      </c>
+      <c r="D58" t="s">
+        <v>736</v>
+      </c>
+      <c r="E58">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="F58">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>542</v>
+      </c>
+      <c r="B59">
+        <v>12.46817248</v>
+      </c>
+      <c r="C59">
+        <v>109</v>
+      </c>
+      <c r="D59" t="s">
+        <v>736</v>
+      </c>
+      <c r="E59">
+        <v>0.6958333333333333</v>
+      </c>
+      <c r="F59">
+        <v>0.45333333333333331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>544</v>
+      </c>
+      <c r="B60">
+        <v>8.6543463379999999</v>
+      </c>
+      <c r="C60">
+        <v>102</v>
+      </c>
+      <c r="D60" t="s">
+        <v>736</v>
+      </c>
+      <c r="E60">
+        <v>0.875</v>
+      </c>
+      <c r="F60">
+        <v>0.54666666666666663</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>546</v>
+      </c>
+      <c r="B61">
+        <v>11.85215606</v>
+      </c>
+      <c r="C61">
+        <v>123</v>
+      </c>
+      <c r="D61" t="s">
+        <v>736</v>
+      </c>
+      <c r="E61">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F61">
+        <v>0.51333333333333331</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>550</v>
+      </c>
+      <c r="B62">
+        <v>10.776180699999999</v>
+      </c>
+      <c r="C62">
+        <v>109</v>
+      </c>
+      <c r="D62" t="s">
+        <v>736</v>
+      </c>
+      <c r="E62">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="F62">
+        <v>0.84666666666666668</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>552</v>
+      </c>
+      <c r="B63">
+        <v>10.86652977</v>
+      </c>
+      <c r="C63">
+        <v>109</v>
+      </c>
+      <c r="D63" t="s">
+        <v>736</v>
+      </c>
+      <c r="E63">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="F63">
+        <v>0.59333333333333338</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B64">
+        <v>13.72758385</v>
+      </c>
+      <c r="C64">
+        <v>110</v>
+      </c>
+      <c r="D64" t="s">
+        <v>736</v>
+      </c>
+      <c r="E64">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="F64">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>556</v>
+      </c>
+      <c r="B65">
+        <v>13.17727584</v>
+      </c>
+      <c r="C65">
+        <v>105</v>
+      </c>
+      <c r="D65" t="s">
+        <v>736</v>
+      </c>
+      <c r="E65">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F65">
+        <v>0.28666666666666668</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>558</v>
+      </c>
+      <c r="B66">
+        <v>12.13689254</v>
+      </c>
+      <c r="C66">
+        <v>120</v>
+      </c>
+      <c r="D66" t="s">
+        <v>736</v>
+      </c>
+      <c r="E66">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="F66">
+        <v>0.28666666666666668</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>560</v>
+      </c>
+      <c r="B67">
+        <v>14.48323066</v>
+      </c>
+      <c r="C67">
+        <v>86</v>
+      </c>
+      <c r="D67" t="s">
+        <v>736</v>
+      </c>
+      <c r="E67">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="F67">
+        <v>0.1866666666666667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>562</v>
+      </c>
+      <c r="B68">
+        <v>9.1854893910000008</v>
+      </c>
+      <c r="C68">
+        <v>105</v>
+      </c>
+      <c r="D68" t="s">
+        <v>736</v>
+      </c>
+      <c r="E68">
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="F68">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>564</v>
+      </c>
+      <c r="B69">
+        <v>10.373716630000001</v>
+      </c>
+      <c r="C69">
+        <v>113</v>
+      </c>
+      <c r="D69" t="s">
+        <v>736</v>
+      </c>
+      <c r="E69">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F69">
+        <v>0.42666666666666669</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>566</v>
+      </c>
+      <c r="B70">
+        <v>9.5167693359999994</v>
+      </c>
+      <c r="C70">
+        <v>89</v>
+      </c>
+      <c r="D70" t="s">
+        <v>736</v>
+      </c>
+      <c r="E70">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F70">
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>568</v>
+      </c>
+      <c r="B71">
+        <v>9.6728268310000001</v>
+      </c>
+      <c r="C71">
+        <v>112</v>
+      </c>
+      <c r="D71" t="s">
+        <v>736</v>
+      </c>
+      <c r="E71">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="F71">
+        <v>0.65333333333333332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>570</v>
+      </c>
+      <c r="B72">
+        <v>9.3552361400000006</v>
+      </c>
+      <c r="C72">
+        <v>102</v>
+      </c>
+      <c r="D72" t="s">
+        <v>736</v>
+      </c>
+      <c r="E72">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="F72">
+        <v>0.15333333333333329</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>572</v>
+      </c>
+      <c r="B73">
+        <v>13.957563309999999</v>
+      </c>
+      <c r="C73">
+        <v>125</v>
+      </c>
+      <c r="D73" t="s">
+        <v>736</v>
+      </c>
+      <c r="E73">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>574</v>
+      </c>
+      <c r="B74">
+        <v>12.64065708</v>
+      </c>
+      <c r="C74">
+        <v>96</v>
+      </c>
+      <c r="D74" t="s">
+        <v>736</v>
+      </c>
+      <c r="E74">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="F74">
+        <v>0.39333333333333331</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>576</v>
+      </c>
+      <c r="B75">
+        <v>13.598904859999999</v>
+      </c>
+      <c r="C75">
+        <v>118</v>
+      </c>
+      <c r="D75" t="s">
+        <v>736</v>
+      </c>
+      <c r="E75">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F75">
+        <v>0.60666666666666669</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>578</v>
+      </c>
+      <c r="B76">
+        <v>10.858316220000001</v>
+      </c>
+      <c r="C76">
+        <v>98</v>
+      </c>
+      <c r="D76" t="s">
+        <v>736</v>
+      </c>
+      <c r="E76">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="F76">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>580</v>
+      </c>
+      <c r="B77">
+        <v>10.85010267</v>
+      </c>
+      <c r="C77">
+        <v>118</v>
+      </c>
+      <c r="D77" t="s">
+        <v>736</v>
+      </c>
+      <c r="E77">
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>582</v>
+      </c>
+      <c r="B78">
+        <v>13.45106092</v>
+      </c>
+      <c r="C78">
+        <v>118</v>
+      </c>
+      <c r="D78" t="s">
+        <v>736</v>
+      </c>
+      <c r="E78">
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>584</v>
+      </c>
+      <c r="B79">
+        <v>11.35112936</v>
+      </c>
+      <c r="C79">
+        <v>117</v>
+      </c>
+      <c r="D79" t="s">
+        <v>736</v>
+      </c>
+      <c r="E79">
+        <v>0.9375</v>
+      </c>
+      <c r="F79">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>586</v>
+      </c>
+      <c r="B80">
+        <v>9.117043121</v>
+      </c>
+      <c r="C80">
+        <v>94</v>
+      </c>
+      <c r="D80" t="s">
+        <v>736</v>
+      </c>
+      <c r="E80">
+        <v>0.32916666666666672</v>
+      </c>
+      <c r="F80">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>673</v>
+      </c>
+      <c r="B81">
+        <v>13.22</v>
+      </c>
+      <c r="C81">
+        <v>101</v>
+      </c>
+      <c r="D81" t="s">
+        <v>724</v>
+      </c>
+      <c r="E81">
+        <v>0.85833333333333328</v>
+      </c>
+      <c r="F81">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>683</v>
+      </c>
+      <c r="B82">
+        <v>12.81</v>
+      </c>
+      <c r="C82">
+        <v>111</v>
+      </c>
+      <c r="D82" t="s">
+        <v>724</v>
+      </c>
+      <c r="E82">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="F82">
+        <v>0.85333333333333339</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>685</v>
+      </c>
+      <c r="B83">
+        <v>13.59</v>
+      </c>
+      <c r="C83">
+        <v>90</v>
+      </c>
+      <c r="D83" t="s">
+        <v>724</v>
+      </c>
+      <c r="E83">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F83">
+        <v>0.90666666666666662</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>687</v>
+      </c>
+      <c r="B84">
+        <v>13.43</v>
+      </c>
+      <c r="C84">
+        <v>101</v>
+      </c>
+      <c r="D84" t="s">
+        <v>724</v>
+      </c>
+      <c r="E84">
+        <v>0.90416666666666667</v>
+      </c>
+      <c r="F84">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>689</v>
+      </c>
+      <c r="B85">
+        <v>15.16</v>
+      </c>
+      <c r="C85">
+        <v>86</v>
+      </c>
+      <c r="D85" t="s">
+        <v>724</v>
+      </c>
+      <c r="E85">
+        <v>0.90416666666666667</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>697</v>
+      </c>
+      <c r="B86">
+        <v>14.69</v>
+      </c>
+      <c r="C86">
+        <v>90</v>
+      </c>
+      <c r="D86" t="s">
+        <v>724</v>
+      </c>
+      <c r="E86">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F86">
+        <v>0.67333333333333334</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>593</v>
+      </c>
+      <c r="B87">
+        <v>9.58</v>
+      </c>
+      <c r="C87">
+        <v>116</v>
+      </c>
+      <c r="D87" t="s">
+        <v>724</v>
+      </c>
+      <c r="E87">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="F87">
+        <v>0.62666666666666671</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>597</v>
+      </c>
+      <c r="B88">
+        <v>14.21</v>
+      </c>
+      <c r="C88">
+        <v>108</v>
+      </c>
+      <c r="D88" t="s">
+        <v>724</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>0.90666666666666662</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>599</v>
+      </c>
+      <c r="B89">
+        <v>14.59</v>
+      </c>
+      <c r="C89">
+        <v>130</v>
+      </c>
+      <c r="D89" t="s">
+        <v>724</v>
+      </c>
+      <c r="E89">
+        <v>0.97083333333333333</v>
+      </c>
+      <c r="F89">
+        <v>0.91333333333333333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>601</v>
+      </c>
+      <c r="B90">
+        <v>11.34</v>
+      </c>
+      <c r="C90">
+        <v>109</v>
+      </c>
+      <c r="D90" t="s">
+        <v>724</v>
+      </c>
+      <c r="E90">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="F90">
+        <v>0.92666666666666664</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>603</v>
+      </c>
+      <c r="B91">
+        <v>11.62</v>
+      </c>
+      <c r="C91">
+        <v>103</v>
+      </c>
+      <c r="D91" t="s">
+        <v>724</v>
+      </c>
+      <c r="E91">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F91">
+        <v>0.7533333333333333</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>609</v>
+      </c>
+      <c r="B92">
+        <v>9.3744010949999996</v>
+      </c>
+      <c r="C92">
+        <v>101</v>
+      </c>
+      <c r="D92" t="s">
+        <v>724</v>
+      </c>
+      <c r="E92">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="F92">
+        <v>0.67333333333333334</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>611</v>
+      </c>
+      <c r="B93">
+        <v>10.11635866</v>
+      </c>
+      <c r="C93">
+        <v>122</v>
+      </c>
+      <c r="D93" t="s">
+        <v>724</v>
+      </c>
+      <c r="E93">
+        <v>0.875</v>
+      </c>
+      <c r="F93">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>613</v>
+      </c>
+      <c r="B94">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="C94">
+        <v>119</v>
+      </c>
+      <c r="D94" t="s">
+        <v>724</v>
+      </c>
+      <c r="E94">
+        <v>0.85833333333333328</v>
+      </c>
+      <c r="F94">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>617</v>
+      </c>
+      <c r="B95">
+        <v>8.77</v>
+      </c>
+      <c r="C95">
+        <v>105</v>
+      </c>
+      <c r="D95" t="s">
+        <v>724</v>
+      </c>
+      <c r="E95">
+        <v>0.8</v>
+      </c>
+      <c r="F95">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>621</v>
+      </c>
+      <c r="B96">
+        <v>8.82</v>
+      </c>
+      <c r="C96">
+        <v>116</v>
+      </c>
+      <c r="D96" t="s">
+        <v>724</v>
+      </c>
+      <c r="E96">
+        <v>0.89166666666666672</v>
+      </c>
+      <c r="F96">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>627</v>
+      </c>
+      <c r="B97">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="C97">
+        <v>100</v>
+      </c>
+      <c r="D97" t="s">
+        <v>724</v>
+      </c>
+      <c r="E97">
+        <v>0.87083333333333335</v>
+      </c>
+      <c r="F97">
+        <v>0.62666666666666671</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>637</v>
+      </c>
+      <c r="B98">
+        <v>12.07</v>
+      </c>
+      <c r="C98">
+        <v>85</v>
+      </c>
+      <c r="D98" t="s">
+        <v>724</v>
+      </c>
+      <c r="E98">
+        <v>0.90416666666666667</v>
+      </c>
+      <c r="F98">
+        <v>0.77333333333333332</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>645</v>
+      </c>
+      <c r="B99">
+        <v>11.47</v>
+      </c>
+      <c r="C99">
+        <v>93</v>
+      </c>
+      <c r="D99" t="s">
+        <v>724</v>
+      </c>
+      <c r="E99">
+        <v>0.89166666666666672</v>
+      </c>
+      <c r="F99">
+        <v>0.51333333333333331</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>699</v>
+      </c>
+      <c r="B100">
+        <v>14.26</v>
+      </c>
+      <c r="C100">
+        <v>99</v>
+      </c>
+      <c r="D100" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>703</v>
+      </c>
+      <c r="B101">
+        <v>14.54</v>
+      </c>
+      <c r="C101">
+        <v>78</v>
+      </c>
+      <c r="D101" t="s">
+        <v>722</v>
+      </c>
+      <c r="E101">
+        <v>0.9375</v>
+      </c>
+      <c r="F101">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>707</v>
+      </c>
+      <c r="B102">
+        <v>13.7</v>
+      </c>
+      <c r="C102">
+        <v>110</v>
+      </c>
+      <c r="D102" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>713</v>
+      </c>
+      <c r="B103">
+        <v>11.49</v>
+      </c>
+      <c r="C103">
+        <v>103</v>
+      </c>
+      <c r="D103" t="s">
+        <v>724</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCA1DDB-4534-4533-810B-E6955C86A9AC}">
   <dimension ref="A1:H147"/>
   <sheetViews>
@@ -5155,7 +7219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03E0325-53D2-4A66-9F3D-4006DC1E081A}">
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -5751,7 +7815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799091CC-8C26-4BD7-9708-399CF0BD41B9}">
   <dimension ref="A1:H28"/>
   <sheetViews>
@@ -6333,7 +8397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30991494-AAB1-43A7-A2E5-619F20C9FA4F}">
   <dimension ref="A1:H30"/>
   <sheetViews>
@@ -6958,7 +9022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5059F327-84AE-4EFC-AB4B-12E5309909EA}">
   <dimension ref="A1:H101"/>
   <sheetViews>
@@ -8994,7 +11058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7BBCA7-AC7E-421B-9470-75F5AAAF3AD6}">
   <dimension ref="A1:H174"/>
   <sheetViews>
@@ -11938,11 +14002,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EF2C7F-AB53-43FB-B481-3DD9F3B1B07D}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
